--- a/Great One Project初期導入関連.xlsx
+++ b/Great One Project初期導入関連.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="13580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="13580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="具体的な活動までの初期導入" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="データ" sheetId="2" r:id="rId4"/>
     <sheet name="その他" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">導入アプリケーション!$A$1:$S$77</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="436">
   <si>
     <t>CSS3</t>
     <phoneticPr fontId="2"/>
@@ -1008,10 +1011,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Cocos2d-x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2Dゲームエンジン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1662,9 +1661,6 @@
   </si>
   <si>
     <t>有償/Windpwsユーザーのみ</t>
-  </si>
-  <si>
-    <t>有償/Windpwsユーザーのみ</t>
     <rPh sb="0" eb="2">
       <t>ユウショウ</t>
     </rPh>
@@ -2023,6 +2019,40 @@
   </si>
   <si>
     <t>Ruby</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cocos2d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有償</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブ型多機能テキストエディタ</t>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シェアウェア</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2030,7 +2060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2081,6 +2111,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2842,7 +2879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="659">
+  <cellStyleXfs count="667">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3502,8 +3539,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3713,159 +3758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3891,38 +3783,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="659">
+  <cellStyles count="667">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4201,6 +4255,10 @@
     <cellStyle name="ハイパーリンク" xfId="653" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="655" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="665" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4582,6 +4640,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="654" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="666" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4920,327 +4982,327 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
         <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="E18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="E19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="F20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="F21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="D24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="E25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="F26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="C28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="C29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="D30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="E31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="C33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" t="s">
         <v>259</v>
-      </c>
-      <c r="D33" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="C34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="D35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="E36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="F37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="C39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="C40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="C41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="D42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" t="s">
         <v>237</v>
-      </c>
-      <c r="E42" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5260,11 +5322,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R77"/>
+  <dimension ref="B1:R78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5291,99 +5353,99 @@
   <sheetData>
     <row r="1" spans="2:18" ht="19" thickBot="1"/>
     <row r="2" spans="2:18" ht="19" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="132"/>
     </row>
     <row r="3" spans="2:18" ht="19" thickBot="1">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="136"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="135"/>
+      <c r="I3" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="119" t="s">
+      <c r="J3" s="135"/>
+      <c r="K3" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="135"/>
+      <c r="M3" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="135"/>
+      <c r="O3" s="141" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="19" thickBot="1">
+      <c r="B4" s="138"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="119" t="s">
+      <c r="H4" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="120"/>
-      <c r="O3" s="126" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="19" thickBot="1">
-      <c r="B4" s="123"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="O4" s="127"/>
+      <c r="O4" s="142"/>
     </row>
     <row r="5" spans="2:18" ht="19" thickBot="1">
       <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>353</v>
+      <c r="C5" s="126" t="s">
+        <v>351</v>
       </c>
       <c r="D5" s="62" t="s">
         <v>134</v>
@@ -5392,19 +5454,19 @@
         <v>134</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>134</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>134</v>
@@ -5416,17 +5478,17 @@
         <v>134</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="19" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="114"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="65" t="s">
         <v>134</v>
       </c>
@@ -5472,7 +5534,7 @@
       <c r="B7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="114"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="86" t="s">
         <v>125</v>
       </c>
@@ -5480,7 +5542,7 @@
         <v>125</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>119</v>
@@ -5518,7 +5580,7 @@
       <c r="B8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="114"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="87" t="s">
         <v>125</v>
       </c>
@@ -5529,7 +5591,7 @@
         <v>125</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>121</v>
@@ -5541,7 +5603,7 @@
         <v>119</v>
       </c>
       <c r="K8" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>119</v>
@@ -5577,7 +5639,7 @@
         <v>125</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>122</v>
@@ -5612,7 +5674,7 @@
       <c r="B10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="133" t="s">
         <v>162</v>
       </c>
       <c r="D10" s="86" t="s">
@@ -5625,7 +5687,7 @@
         <v>125</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>121</v>
@@ -5660,7 +5722,7 @@
       <c r="B11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="114"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="86" t="s">
         <v>125</v>
       </c>
@@ -5706,7 +5768,7 @@
       <c r="B12" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="114"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="86" t="s">
         <v>125</v>
       </c>
@@ -5752,7 +5814,7 @@
       <c r="B13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="114"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="86" t="s">
         <v>125</v>
       </c>
@@ -5794,7 +5856,7 @@
       <c r="B14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="87" t="s">
         <v>125</v>
       </c>
@@ -5805,7 +5867,7 @@
         <v>125</v>
       </c>
       <c r="G14" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H14" s="73" t="s">
         <v>121</v>
@@ -5834,11 +5896,11 @@
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>312</v>
-      </c>
       <c r="D15" s="76" t="s">
         <v>125</v>
       </c>
@@ -5852,7 +5914,7 @@
         <v>125</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I15" s="76" t="s">
         <v>125</v>
@@ -5864,7 +5926,7 @@
         <v>125</v>
       </c>
       <c r="L15" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M15" s="76" t="s">
         <v>125</v>
@@ -5878,10 +5940,10 @@
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>125</v>
@@ -5896,7 +5958,7 @@
         <v>125</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I16" s="86" t="s">
         <v>125</v>
@@ -5934,13 +5996,13 @@
         <v>125</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G17" s="104" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I17" s="104" t="s">
         <v>125</v>
@@ -5966,10 +6028,10 @@
     </row>
     <row r="18" spans="2:18" ht="19" thickBot="1">
       <c r="B18" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>212</v>
       </c>
       <c r="D18" s="79" t="s">
         <v>125</v>
@@ -5996,7 +6058,7 @@
         <v>125</v>
       </c>
       <c r="L18" s="80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M18" s="79" t="s">
         <v>125</v>
@@ -6012,8 +6074,8 @@
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="109" t="s">
-        <v>354</v>
+      <c r="C19" s="126" t="s">
+        <v>352</v>
       </c>
       <c r="D19" s="76" t="s">
         <v>126</v>
@@ -6025,10 +6087,10 @@
         <v>137</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" s="62" t="s">
         <v>137</v>
@@ -6054,7 +6116,7 @@
       <c r="B20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="86" t="s">
         <v>125</v>
       </c>
@@ -6065,7 +6127,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H20" s="66" t="s">
         <v>122</v>
@@ -6092,9 +6154,9 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="114"/>
+        <v>268</v>
+      </c>
+      <c r="C21" s="127"/>
       <c r="D21" s="104" t="s">
         <v>125</v>
       </c>
@@ -6111,7 +6173,7 @@
         <v>125</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J21" s="70" t="s">
         <v>125</v>
@@ -6129,14 +6191,14 @@
         <v>125</v>
       </c>
       <c r="O21" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="114"/>
+        <v>266</v>
+      </c>
+      <c r="C22" s="127"/>
       <c r="D22" s="86" t="s">
         <v>125</v>
       </c>
@@ -6147,7 +6209,7 @@
         <v>134</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H22" s="84" t="s">
         <v>134</v>
@@ -6171,16 +6233,16 @@
         <v>125</v>
       </c>
       <c r="O22" s="58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="19" thickBot="1">
       <c r="B23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="110"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="75" t="s">
         <v>125</v>
@@ -6189,10 +6251,10 @@
         <v>140</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" s="72" t="s">
         <v>140</v>
@@ -6213,33 +6275,33 @@
         <v>125</v>
       </c>
       <c r="O23" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="19" thickBot="1">
-      <c r="B24" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>125</v>
+      <c r="B24" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="180" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="181" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="I24" s="103" t="s">
+        <v>433</v>
       </c>
       <c r="J24" s="89" t="s">
         <v>125</v>
@@ -6256,17 +6318,19 @@
       <c r="N24" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="O24" s="48"/>
+      <c r="O24" s="52" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="25" spans="2:18" ht="19" thickBot="1">
       <c r="B25" s="13" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="E25" s="90" t="s">
         <v>125</v>
@@ -6278,7 +6342,7 @@
         <v>125</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="61" t="s">
         <v>125</v>
@@ -6302,19 +6366,19 @@
     </row>
     <row r="26" spans="2:18" ht="19" thickBot="1">
       <c r="B26" s="13" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="E26" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="88" t="s">
-        <v>121</v>
+      <c r="F26" s="89" t="s">
+        <v>125</v>
       </c>
       <c r="G26" s="61" t="s">
         <v>125</v>
@@ -6342,238 +6406,236 @@
       </c>
       <c r="O26" s="48"/>
     </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:18" ht="19" thickBot="1">
+      <c r="B27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" s="48"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="112" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="81" t="s">
+      <c r="C28" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="19" thickBot="1">
+      <c r="B29" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="68" t="s">
+      <c r="C29" s="125"/>
+      <c r="D29" s="114" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="19" thickBot="1">
+      <c r="B30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="E31" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="L27" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="M27" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N27" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="19" thickBot="1">
-      <c r="B28" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="72" t="s">
+      <c r="H31" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="N28" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="O28" s="52" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="19" thickBot="1">
-      <c r="B29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="91" t="s">
+      <c r="I31" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="48" t="s">
+      <c r="J31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="50" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="O30" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="O31" s="43" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D32" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="96" t="s">
+      <c r="E32" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="70" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="65" t="s">
@@ -6585,36 +6647,36 @@
       <c r="I32" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="96" t="s">
+      <c r="J32" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="70" t="s">
         <v>125</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="19" thickBot="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D33" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="105" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="96" t="s">
@@ -6645,865 +6707,865 @@
         <v>125</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="19" thickBot="1">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="19" thickBot="1">
+      <c r="B35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="72" t="s">
+      <c r="D35" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K34" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="O34" s="49" t="s">
+      <c r="H35" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O35" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q35" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35" s="107"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="19" thickBot="1">
+      <c r="B37" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" s="49"/>
+      <c r="Q37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="R34" s="107"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="D35" s="76" t="s">
+      <c r="Q38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="19" thickBot="1">
+      <c r="B39" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="49"/>
+      <c r="Q39" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O40" s="50"/>
+      <c r="Q40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="19" thickBot="1">
+      <c r="B41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" s="49"/>
+      <c r="Q41" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="62" t="s">
+      <c r="R41" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="L35" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="M35" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="N35" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="O35" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q35" s="3" t="s">
+      <c r="I42" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" ht="19" thickBot="1">
-      <c r="B36" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="F36" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="72" t="s">
+      <c r="J42" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" spans="2:18" ht="19" thickBot="1">
+      <c r="B43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="F43" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="O43" s="49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O44" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="19" thickBot="1">
+      <c r="B45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="128"/>
+      <c r="D45" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="L36" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="N36" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="O36" s="49"/>
-      <c r="Q36" s="5" t="s">
+      <c r="J45" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="49"/>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="M46" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="N46" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O46" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="19" thickBot="1">
+      <c r="B47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="128"/>
+      <c r="D47" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="N47" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="2:15" ht="19" thickBot="1">
+      <c r="B49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="128"/>
+      <c r="D49" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="R36" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" s="76" t="s">
+      <c r="N49" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="19" thickBot="1">
+      <c r="B50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="K37" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="M37" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="N37" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="O37" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="19" thickBot="1">
-      <c r="B38" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="L38" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="N38" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="O38" s="49"/>
-      <c r="Q38" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="R38" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="M39" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="O39" s="50"/>
-      <c r="Q39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" ht="19" thickBot="1">
-      <c r="B40" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="O40" s="49"/>
-      <c r="Q40" s="8" t="s">
+      <c r="E50" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="R40" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="62" t="s">
+      <c r="H50" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="I50" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="L41" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="M41" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N41" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="O41" s="50"/>
-    </row>
-    <row r="42" spans="2:18" ht="19" thickBot="1">
-      <c r="B42" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="F42" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="73" t="s">
+      <c r="J50" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="N50" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" s="48"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="72" t="s">
+      <c r="K51" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="J42" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="M42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="N42" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="O42" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="62" t="s">
+      <c r="L51" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="J43" s="63" t="s">
+      <c r="M51" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="K43" s="62" t="s">
+      <c r="N51" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="M43" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N43" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="O43" s="50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="19" thickBot="1">
-      <c r="B44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="L44" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="N44" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="O44" s="49"/>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="B45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="109" t="s">
-        <v>357</v>
-      </c>
-      <c r="D45" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="L45" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="M45" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N45" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="O45" s="50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" ht="19" thickBot="1">
-      <c r="B46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="J46" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="K46" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="L46" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="N46" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="O46" s="49"/>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J47" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K47" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="L47" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="M47" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="N47" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="O47" s="50"/>
-    </row>
-    <row r="48" spans="2:18" ht="19" thickBot="1">
-      <c r="B48" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I48" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="J48" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="K48" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="M48" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="N48" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="O48" s="49" t="s">
+      <c r="O51" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="19" thickBot="1">
-      <c r="B49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="I49" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="K49" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="L49" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="91" t="s">
+    <row r="52" spans="2:15" ht="19" thickBot="1">
+      <c r="B52" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="128"/>
+      <c r="D52" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52" s="72" t="s">
         <v>320</v>
-      </c>
-      <c r="N49" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="O49" s="48"/>
-    </row>
-    <row r="50" spans="2:18">
-      <c r="B50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J50" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="K50" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="L50" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="N50" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="O50" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" ht="19" thickBot="1">
-      <c r="B51" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="J51" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="L51" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="M51" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="N51" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="O51" s="49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" ht="19" thickBot="1">
-      <c r="B52" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="I52" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="J52" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="K52" s="72" t="s">
-        <v>321</v>
       </c>
       <c r="L52" s="73" t="s">
         <v>140</v>
       </c>
       <c r="M52" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N52" s="73" t="s">
         <v>140</v>
       </c>
       <c r="O52" s="49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" ht="19" thickBot="1">
-      <c r="B53" s="13" t="s">
-        <v>56</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="19" thickBot="1">
+      <c r="B53" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="61" t="s">
         <v>126</v>
@@ -7523,505 +7585,501 @@
       <c r="I53" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="J53" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="K53" s="91" t="s">
+      <c r="J53" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="L53" s="88" t="s">
+      <c r="L53" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="N53" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="O53" s="49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="19" thickBot="1">
+      <c r="B54" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="L54" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="N53" s="88" t="s">
+      <c r="M54" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="N54" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="O53" s="48"/>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="3" t="s">
+      <c r="O54" s="48"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="112" t="s">
-        <v>363</v>
-      </c>
-      <c r="D54" s="76" t="s">
+      <c r="C55" s="124" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J54" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K54" s="62" t="s">
+      <c r="E55" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K55" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="63" t="s">
+      <c r="L55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="M54" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="O54" s="50"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="5" t="s">
+      <c r="M55" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O55" s="50"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="144"/>
+      <c r="D56" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="M56" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="N56" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O56" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J55" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="K55" s="65" t="s">
+      <c r="C57" s="144"/>
+      <c r="D57" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="M57" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="O57" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="144"/>
+      <c r="D58" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="M58" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="N58" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O58" s="43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L55" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M55" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="N55" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="O55" s="43" t="s">
+      <c r="C59" s="144"/>
+      <c r="D59" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="L59" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="M59" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="N59" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="O59" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="19" thickBot="1">
+      <c r="B60" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="125"/>
+      <c r="D60" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="L60" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="M60" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I61" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="J61" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="M61" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="N61" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="O61" s="50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="127"/>
+      <c r="D62" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="I62" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="J62" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="K62" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="L62" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="M62" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="N62" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="O62" s="60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="19" thickBot="1">
+      <c r="B63" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="128"/>
+      <c r="D63" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="J63" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K63" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="M63" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="N63" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="O63" s="49" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="J56" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="K56" s="160" t="s">
-        <v>323</v>
-      </c>
-      <c r="L56" s="161" t="s">
-        <v>323</v>
-      </c>
-      <c r="M56" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="N56" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="O56" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J57" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="L57" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M57" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="O57" s="43" t="s">
+    <row r="64" spans="2:15" ht="19" thickBot="1">
+      <c r="B64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="124" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" s="62" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="I58" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="J58" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="L58" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M58" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="N58" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="O58" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" ht="19" thickBot="1">
-      <c r="B59" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="I59" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="J59" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="K59" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="L59" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="M59" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="N59" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="O59" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="109" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="J60" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="L60" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="M60" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N60" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="O60" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="I61" s="102" t="s">
-        <v>270</v>
-      </c>
-      <c r="J61" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="K61" s="162" t="s">
-        <v>323</v>
-      </c>
-      <c r="L61" s="92" t="s">
-        <v>323</v>
-      </c>
-      <c r="M61" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="N61" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="O61" s="60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" ht="19" thickBot="1">
-      <c r="B62" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C62" s="110"/>
-      <c r="D62" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="I62" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="J62" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="K62" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="L62" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="M62" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="N62" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="O62" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" ht="19" thickBot="1">
-      <c r="B63" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="112" t="s">
-        <v>359</v>
-      </c>
-      <c r="D63" s="62" t="s">
+      <c r="E64" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="E63" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="F63" s="63" t="s">
+      <c r="F64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="62" t="s">
+      <c r="G64" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="H63" s="63" t="s">
+      <c r="H64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="I63" s="62" t="s">
+      <c r="I64" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="J63" s="63" t="s">
+      <c r="J64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="K63" s="62" t="s">
+      <c r="K64" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="L63" s="63" t="s">
+      <c r="L64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="62" t="s">
+      <c r="M64" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="N63" s="63" t="s">
+      <c r="N64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="O63" s="50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" ht="19" thickBot="1">
-      <c r="B64" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="F64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="J64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="K64" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="L64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="M64" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="N64" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="O64" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q64" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="R64" s="112"/>
-    </row>
-    <row r="65" spans="2:18">
+      <c r="O64" s="50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" ht="19" thickBot="1">
       <c r="B65" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="133" t="s">
-        <v>360</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C65" s="146"/>
       <c r="D65" s="65" t="s">
         <v>140</v>
       </c>
       <c r="E65" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="66" t="s">
         <v>134</v>
@@ -8051,25 +8109,25 @@
         <v>134</v>
       </c>
       <c r="O65" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="Q65" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="R65" s="124"/>
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C66" s="135"/>
+        <v>172</v>
+      </c>
+      <c r="C66" s="145" t="s">
+        <v>358</v>
+      </c>
       <c r="D66" s="65" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F66" s="66" t="s">
         <v>134</v>
@@ -8099,27 +8157,25 @@
         <v>134</v>
       </c>
       <c r="O66" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>135</v>
+        <v>430</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C67" s="133" t="s">
-        <v>362</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C67" s="146"/>
       <c r="D67" s="65" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F67" s="66" t="s">
         <v>134</v>
@@ -8149,25 +8205,27 @@
         <v>134</v>
       </c>
       <c r="O67" s="43" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C68" s="135"/>
+        <v>335</v>
+      </c>
+      <c r="C68" s="145" t="s">
+        <v>360</v>
+      </c>
       <c r="D68" s="65" t="s">
         <v>140</v>
       </c>
       <c r="E68" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F68" s="66" t="s">
         <v>134</v>
@@ -8197,281 +8255,287 @@
         <v>134</v>
       </c>
       <c r="O68" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q68" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="R68" s="32" t="s">
-        <v>142</v>
+        <v>430</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="113" t="s">
-        <v>361</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C69" s="146"/>
       <c r="D69" s="65" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E69" s="67" t="s">
         <v>320</v>
       </c>
       <c r="F69" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="L69" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M69" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="N69" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="O69" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="R69" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="133" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="F70" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="G70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="H69" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="I69" s="65" t="s">
+      <c r="H70" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J69" s="66" t="s">
+      <c r="J70" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="L69" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="M69" s="65" t="s">
+      <c r="K70" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="L70" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="M70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="N69" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="O69" s="43"/>
-      <c r="Q69" s="5" t="s">
+      <c r="N70" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="O70" s="43"/>
+      <c r="Q70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="R69" s="6" t="s">
+      <c r="R70" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:18" ht="19" thickBot="1">
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="2:18" ht="19" thickBot="1">
+      <c r="B71" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="110"/>
-      <c r="D70" s="72" t="s">
+      <c r="C71" s="128"/>
+      <c r="D71" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="100" t="s">
+      <c r="E71" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="73" t="s">
+      <c r="F71" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="G70" s="72" t="s">
+      <c r="G71" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H71" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="I70" s="72" t="s">
+      <c r="I71" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J70" s="73" t="s">
+      <c r="J71" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="K70" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="L70" s="73" t="s">
+      <c r="K71" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="L71" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="M70" s="72" t="s">
+      <c r="M71" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="N70" s="73" t="s">
+      <c r="N71" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="O70" s="49"/>
-      <c r="Q70" s="8" t="s">
+      <c r="O71" s="49"/>
+      <c r="Q71" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R71" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="2:18" ht="19" thickBot="1">
-      <c r="B71" s="13" t="s">
+    <row r="72" spans="2:18" ht="19" thickBot="1">
+      <c r="B72" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="163" t="s">
+      <c r="C72" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D72" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="101" t="s">
+      <c r="E72" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="88" t="s">
+      <c r="F72" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="91" t="s">
+      <c r="G72" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="H71" s="88" t="s">
+      <c r="H72" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="I71" s="91" t="s">
+      <c r="I72" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="J71" s="88" t="s">
+      <c r="J72" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="K71" s="91" t="s">
+      <c r="K72" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="L71" s="88" t="s">
+      <c r="L72" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="M71" s="91" t="s">
+      <c r="M72" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="N71" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="O71" s="48"/>
-    </row>
-    <row r="72" spans="2:18">
-      <c r="B72" s="3" t="s">
+      <c r="N72" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="O72" s="48"/>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" s="124" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="112" t="s">
-        <v>352</v>
-      </c>
-      <c r="D72" s="62" t="s">
+      <c r="D73" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="64" t="s">
+      <c r="E73" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="63" t="s">
+      <c r="F73" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G72" s="62" t="s">
+      <c r="G73" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H73" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="I72" s="62" t="s">
+      <c r="I73" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="J72" s="63" t="s">
+      <c r="J73" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="62" t="s">
+      <c r="K73" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L72" s="63" t="s">
+      <c r="L73" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="M72" s="62" t="s">
+      <c r="M73" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="N72" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="O72" s="50"/>
-    </row>
-    <row r="73" spans="2:18" ht="19" thickBot="1">
-      <c r="B73" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C73" s="140"/>
-      <c r="D73" s="72" t="s">
+      <c r="N73" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="O73" s="50"/>
+    </row>
+    <row r="74" spans="2:18" ht="19" thickBot="1">
+      <c r="B74" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="125"/>
+      <c r="D74" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="100" t="s">
+      <c r="E74" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F74" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="72" t="s">
+      <c r="G74" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="H73" s="73" t="s">
+      <c r="H74" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="72" t="s">
+      <c r="I74" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="73" t="s">
+      <c r="J74" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="K73" s="72" t="s">
+      <c r="K74" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L73" s="73" t="s">
+      <c r="L74" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M73" s="72" t="s">
+      <c r="M74" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="N73" s="73" t="s">
-        <v>344</v>
-      </c>
-      <c r="O73" s="49"/>
-    </row>
-    <row r="74" spans="2:18" ht="19" thickBot="1">
-      <c r="B74" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" s="163" t="s">
-        <v>349</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="I74" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="K74" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="L74" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="M74" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="N74" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="O74" s="48"/>
+      <c r="N74" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="O74" s="49"/>
     </row>
     <row r="75" spans="2:18" ht="19" thickBot="1">
       <c r="B75" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C75" s="112" t="s">
         <v>347</v>
-      </c>
-      <c r="C75" s="163" t="s">
-        <v>346</v>
       </c>
       <c r="D75" s="91" t="s">
         <v>122</v>
@@ -8504,35 +8568,86 @@
         <v>121</v>
       </c>
       <c r="N75" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="O75" s="48"/>
+    </row>
+    <row r="76" spans="2:18" ht="19" thickBot="1">
+      <c r="B76" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="O75" s="48"/>
-    </row>
-    <row r="77" spans="2:18">
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
+      <c r="D76" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="K76" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="L76" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M76" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="N76" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="O76" s="48"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B3:B4"/>
@@ -8541,20 +8656,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C46:C47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="34" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8583,18 +8689,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19" thickBot="1"/>
     <row r="2" spans="2:11" ht="19" thickBot="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:11" ht="19" thickBot="1">
       <c r="B3" s="13" t="s">
@@ -8613,115 +8719,115 @@
         <v>111</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="173" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>364</v>
+      <c r="B4" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>362</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="167" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" s="172" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" s="172" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" s="172" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="172" t="s">
-        <v>376</v>
-      </c>
-      <c r="J4" s="170" t="s">
-        <v>379</v>
-      </c>
-      <c r="K4" s="176" t="s">
-        <v>392</v>
+        <v>368</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="K4" s="158" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="168"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="155"/>
       <c r="D5" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154" t="s">
-        <v>377</v>
+        <v>382</v>
+      </c>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153" t="s">
+        <v>375</v>
       </c>
       <c r="K5" s="155"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="168"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="155"/>
       <c r="D6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="155"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="151"/>
+      <c r="C7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="168"/>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I7" s="171" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>362</v>
       </c>
       <c r="J7" s="108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K7" s="155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="151" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="155" t="s">
@@ -8730,152 +8836,152 @@
       <c r="D8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="154" t="s">
+      <c r="J8" s="153" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="155"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="168"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="155"/>
       <c r="D9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
       <c r="K9" s="155"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="168"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="155"/>
       <c r="D10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
       <c r="K10" s="155"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="168"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="155"/>
       <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
       <c r="K11" s="155"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="168"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="155" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154" t="s">
+      <c r="E12" s="153"/>
+      <c r="F12" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
       <c r="K12" s="155"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="168"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="155"/>
       <c r="D13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
       <c r="K13" s="155"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="168"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="155"/>
       <c r="D14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
       <c r="K14" s="155"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="168"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="155"/>
       <c r="D15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="155"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="168"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="155"/>
       <c r="D16" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="153"/>
+      <c r="F16" s="119" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="153"/>
+      <c r="H16" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="I16" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="119" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="171" t="s">
-        <v>387</v>
-      </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="108" t="s">
-        <v>403</v>
-      </c>
-      <c r="I16" s="171" t="s">
-        <v>364</v>
-      </c>
-      <c r="J16" s="171" t="s">
-        <v>388</v>
-      </c>
       <c r="K16" s="155"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="151" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="155" t="s">
@@ -8884,108 +8990,108 @@
       <c r="D17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="171" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" s="171" t="s">
+      <c r="E17" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="119" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="171" t="s">
-        <v>395</v>
-      </c>
-      <c r="I17" s="171" t="s">
-        <v>389</v>
-      </c>
-      <c r="J17" s="171" t="s">
-        <v>390</v>
+      <c r="H17" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="I17" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="K17" s="155"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="168"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="155"/>
       <c r="D18" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E18" s="171" t="s">
-        <v>364</v>
-      </c>
-      <c r="F18" s="171" t="s">
-        <v>393</v>
+        <v>365</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="119" t="s">
+        <v>391</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="171" t="s">
-        <v>401</v>
-      </c>
-      <c r="I18" s="171" t="s">
-        <v>397</v>
-      </c>
-      <c r="J18" s="171" t="s">
-        <v>398</v>
+        <v>362</v>
+      </c>
+      <c r="H18" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="I18" s="119" t="s">
+        <v>395</v>
+      </c>
+      <c r="J18" s="119" t="s">
+        <v>396</v>
       </c>
       <c r="K18" s="155"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="168"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="155" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="171" t="s">
-        <v>366</v>
-      </c>
-      <c r="F19" s="171" t="s">
-        <v>381</v>
+      <c r="E19" s="119" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>379</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="171" t="s">
-        <v>396</v>
-      </c>
-      <c r="I19" s="171" t="s">
-        <v>400</v>
-      </c>
-      <c r="J19" s="171" t="s">
-        <v>390</v>
+      <c r="H19" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="I19" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="K19" s="155"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="168"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="155"/>
       <c r="D20" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E20" s="108" t="s">
-        <v>364</v>
-      </c>
-      <c r="F20" s="171" t="s">
-        <v>394</v>
+        <v>362</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>392</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H20" s="171" t="s">
-        <v>404</v>
-      </c>
-      <c r="I20" s="171" t="s">
-        <v>376</v>
-      </c>
-      <c r="J20" s="171" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="H20" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>365</v>
       </c>
       <c r="K20" s="155"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="151" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="155" t="s">
@@ -8994,297 +9100,276 @@
       <c r="D21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="171" t="s">
-        <v>382</v>
+      <c r="F21" s="119" t="s">
+        <v>380</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="171" t="s">
-        <v>396</v>
-      </c>
-      <c r="I21" s="171" t="s">
-        <v>389</v>
-      </c>
-      <c r="J21" s="171" t="s">
-        <v>390</v>
+      <c r="H21" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="K21" s="155"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="168"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="155"/>
       <c r="D22" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
+        <v>365</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H22" s="171" t="s">
-        <v>402</v>
-      </c>
-      <c r="I22" s="171" t="s">
-        <v>399</v>
-      </c>
-      <c r="J22" s="171" t="s">
-        <v>405</v>
+        <v>362</v>
+      </c>
+      <c r="H22" s="119" t="s">
+        <v>400</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="J22" s="119" t="s">
+        <v>403</v>
       </c>
       <c r="K22" s="155"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="168"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="155" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="171" t="s">
-        <v>396</v>
-      </c>
-      <c r="I23" s="171" t="s">
-        <v>389</v>
-      </c>
-      <c r="J23" s="171" t="s">
-        <v>390</v>
+      <c r="H23" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="I23" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="K23" s="155"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="168"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="155"/>
       <c r="D24" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E24" s="108"/>
-      <c r="F24" s="171" t="s">
-        <v>387</v>
+      <c r="F24" s="119" t="s">
+        <v>385</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>387</v>
-      </c>
-      <c r="I24" s="171" t="s">
-        <v>376</v>
-      </c>
-      <c r="J24" s="128" t="s">
-        <v>367</v>
+        <v>385</v>
+      </c>
+      <c r="I24" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="J24" s="147" t="s">
+        <v>365</v>
       </c>
       <c r="K24" s="155"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="168" t="s">
-        <v>407</v>
+      <c r="B25" s="151" t="s">
+        <v>405</v>
       </c>
       <c r="C25" s="155" t="s">
-        <v>408</v>
-      </c>
-      <c r="D25" s="168" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="154" t="s">
-        <v>364</v>
+      <c r="E25" s="153" t="s">
+        <v>362</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="154" t="s">
-        <v>364</v>
-      </c>
-      <c r="H25" s="128" t="s">
-        <v>364</v>
-      </c>
-      <c r="I25" s="128" t="s">
+      <c r="G25" s="153" t="s">
+        <v>362</v>
+      </c>
+      <c r="H25" s="147" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="129"/>
+      <c r="J25" s="148"/>
       <c r="K25" s="155"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="168"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="155"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="154"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="153"/>
       <c r="F26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
       <c r="K26" s="155"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="168"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="155"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="154"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="153"/>
       <c r="F27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
       <c r="K27" s="155"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="168"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="155"/>
-      <c r="D28" s="169" t="s">
-        <v>422</v>
-      </c>
-      <c r="E28" s="154"/>
+      <c r="D28" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="E28" s="153"/>
       <c r="F28" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="133" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="G28" s="153"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="145" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="168"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="155"/>
-      <c r="D29" s="169" t="s">
-        <v>406</v>
-      </c>
-      <c r="E29" s="154"/>
+      <c r="D29" s="117" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" s="153"/>
       <c r="F29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="154"/>
-      <c r="H29" s="171" t="s">
+      <c r="G29" s="153"/>
+      <c r="H29" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="I29" s="150"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="144"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="C30" s="155" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="153"/>
+      <c r="H30" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="I30" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="J30" s="148"/>
+      <c r="K30" s="146"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="151"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="I31" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="J31" s="148"/>
+      <c r="K31" s="121" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="151"/>
+      <c r="C32" s="155" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="I29" s="130"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="134"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="168" t="s">
-        <v>420</v>
-      </c>
-      <c r="C30" s="155" t="s">
-        <v>425</v>
-      </c>
-      <c r="D30" s="169" t="s">
-        <v>423</v>
-      </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="171" t="s">
+      <c r="I32" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="I30" s="171" t="s">
-        <v>430</v>
-      </c>
-      <c r="J30" s="129"/>
-      <c r="K30" s="135"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="168"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="171" t="s">
-        <v>364</v>
-      </c>
-      <c r="I31" s="171" t="s">
-        <v>364</v>
-      </c>
-      <c r="J31" s="129"/>
-      <c r="K31" s="177" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="168"/>
-      <c r="C32" s="155" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="169" t="s">
-        <v>423</v>
-      </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="171" t="s">
-        <v>429</v>
-      </c>
-      <c r="I32" s="171" t="s">
-        <v>430</v>
-      </c>
-      <c r="J32" s="129"/>
-      <c r="K32" s="177" t="s">
-        <v>364</v>
+      <c r="J32" s="148"/>
+      <c r="K32" s="121" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="19" thickBot="1">
-      <c r="B33" s="174"/>
-      <c r="C33" s="157"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="156"/>
       <c r="D33" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="175" t="s">
-        <v>368</v>
-      </c>
-      <c r="I33" s="175" t="s">
-        <v>367</v>
-      </c>
-      <c r="J33" s="136"/>
-      <c r="K33" s="178" t="s">
-        <v>378</v>
+        <v>422</v>
+      </c>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="120" t="s">
+        <v>366</v>
+      </c>
+      <c r="I33" s="120" t="s">
+        <v>365</v>
+      </c>
+      <c r="J33" s="149"/>
+      <c r="K33" s="122" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="J24:J33"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="E25:E33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="G25:G33"/>
@@ -9301,7 +9386,28 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H8:H15"/>
+    <mergeCell ref="I8:I15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="B8:B16"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="J24:J33"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E25:E33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F30:F33"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C25:C29"/>
   </mergeCells>
@@ -9320,7 +9426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -9341,21 +9447,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19" thickBot="1"/>
     <row r="2" spans="2:12" ht="19" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="118"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="2:12" ht="19" thickBot="1">
       <c r="B3" s="18" t="s">
@@ -9367,10 +9473,10 @@
       <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="142"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="45" t="s">
         <v>46</v>
       </c>
@@ -9391,7 +9497,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="166" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -9412,21 +9518,21 @@
       <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="134" t="s">
+      <c r="K4" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="143" t="s">
+      <c r="L4" s="166" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="144"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
@@ -9445,10 +9551,10 @@
       <c r="H5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="143"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="166"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="19" t="s">
@@ -9472,10 +9578,10 @@
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="143"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="166"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="19" t="s">
@@ -9499,13 +9605,13 @@
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="144"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="167"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="174" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -9520,27 +9626,27 @@
       <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="G8" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="150" t="s">
+      <c r="H8" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="148" t="s">
+      <c r="J8" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="152" t="s">
+      <c r="L8" s="168" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="143"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
@@ -9553,15 +9659,15 @@
       <c r="F9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="153"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="169"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="144"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
@@ -9594,7 +9700,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="174" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -9609,27 +9715,27 @@
       <c r="F11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="148" t="s">
+      <c r="J11" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="150" t="s">
+      <c r="K11" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="152" t="s">
+      <c r="L11" s="168" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="144"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
@@ -9642,15 +9748,15 @@
       <c r="F12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="153"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="169"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="174" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -9665,27 +9771,27 @@
       <c r="F13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="G13" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="150" t="s">
+      <c r="H13" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="146" t="s">
+      <c r="I13" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="148" t="s">
+      <c r="J13" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="150" t="s">
+      <c r="K13" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="152" t="s">
+      <c r="L13" s="168" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="144"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="30" t="s">
         <v>21</v>
       </c>
@@ -9696,12 +9802,12 @@
         <v>169</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="153"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="169"/>
     </row>
     <row r="15" spans="2:12" ht="19" thickBot="1">
       <c r="B15" s="20" t="s">
@@ -9740,6 +9846,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="K8:K9"/>
@@ -9748,27 +9875,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9814,13 +9920,13 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="178" t="s">
         <v>182</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="131" t="s">
         <v>179</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -9828,82 +9934,82 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="19" thickBot="1">
-      <c r="B4" s="159"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19" thickBot="1"/>
     <row r="6" spans="2:5" ht="19" thickBot="1">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="118"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="150" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="135"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="146"/>
     </row>
     <row r="8" spans="2:5" ht="19" thickBot="1">
       <c r="B8" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="156"/>
     </row>
     <row r="9" spans="2:5" ht="19" thickBot="1"/>
     <row r="10" spans="2:5" ht="19" thickBot="1">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="146"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="155"/>
     </row>
     <row r="13" spans="2:5" ht="19" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="9">
